--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>commname</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,50 +474,46 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="A7" t="n">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>~ACTIVEPDEF</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>~ACTIVEPDEF</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>value</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>~TIMEPERIODS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>~TIMEPERIODS</t>
-        </is>
+      <c r="A14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
+      <c r="A15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -525,65 +521,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>10</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>10</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>~CURRENCIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>~CURRENCIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>currency</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>~TIMESLICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>daynite</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>~TIMESLICES</t>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>season</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>weekly</t>
-        </is>
-      </c>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>daynite</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -596,37 +608,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,37 +582,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,11 +573,7 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -586,9 +582,41 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WN</t>
         </is>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,50 +573,48 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SN</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>WD</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>WN</t>
+          <t>N</t>
         </is>
       </c>
     </row>
